--- a/data/trans_bre/P20D2_R_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20D2_R_2023-Clase-trans_bre.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-46.9636684477106</v>
+        <v>-46.96366844771059</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>-0.512089120531367</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-84.6063945814747</v>
+        <v>-84.30356562305714</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.8984509256434043</v>
+        <v>-0.8865623887841364</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.903133317224823</v>
+        <v>-2.348585315731262</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-0.03113558517937154</v>
+        <v>-0.02426354003235333</v>
       </c>
     </row>
     <row r="7">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-93.30742910564467</v>
+        <v>-92.64043843936881</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-23.69979765050657</v>
+        <v>-23.69695422226358</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3735703934738228</v>
+        <v>-0.436321693059498</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-54.61492056409204</v>
+        <v>-54.61492056409205</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-0.7976487884718209</v>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-81.60123403551211</v>
+        <v>-82.49691686049752</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>-1</v>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.847508253288382</v>
+        <v>-12.87357556980913</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.05939492095270854</v>
+        <v>-0.1256446643305271</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-48.55786365201401</v>
+        <v>-44.81282397038854</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.599219132994098</v>
+        <v>-0.5798918655324941</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.67197881676327</v>
+        <v>23.32837790598828</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4327578736860897</v>
+        <v>0.4757181365792414</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-17.05474816087483</v>
+        <v>-17.05474816087481</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.2767963841998599</v>
+        <v>-0.2767963841998596</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-50.27834106811481</v>
+        <v>-48.66635214498301</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.6308355178197185</v>
+        <v>-0.6403376148003448</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.74053458958864</v>
+        <v>17.52444375016152</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.3524837512950693</v>
+        <v>0.4476782820471598</v>
       </c>
     </row>
     <row r="19">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>67.96106432862197</v>
+        <v>67.96106432862194</v>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-30.3128940983701</v>
+        <v>-30.31289409837012</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>-0.42212741927334</v>
+        <v>-0.4221274192733401</v>
       </c>
     </row>
     <row r="23">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-45.72729488636593</v>
+        <v>-47.2525346480196</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.5975031963312725</v>
+        <v>-0.6052906139354646</v>
       </c>
     </row>
     <row r="24">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-11.2860336304402</v>
+        <v>-13.25405120632068</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>-0.1824969833075436</v>
+        <v>-0.2007837323690588</v>
       </c>
     </row>
     <row r="25">
